--- a/result_OZ.xlsx
+++ b/result_OZ.xlsx
@@ -1,37 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -50,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -330,13 +385,2647 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>№</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Название</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Цена</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Рейтинг</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Ссылка</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Носки Faber Family, 12 пар</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>431 ₽</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.8  </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/noski-faber-family-12-par-177097968/?advert=DtZDyVNMZFMAPao4p9FrkkUhvVzK5ytKLpF90m5VBkSjWhIz72n3I2LPKMTVUX_1iA2jJ2T-y933rx1mby4ii_NEckQ__tThreP85AD3m-2J5-LPa_DPBpU9Kj1AhpnUTlIQU1rgtmIGwyYIahkHqTObb9kkhxjwUEmJRUtiOrueiBege-Jgwvv9mhNHWRABo4yPdhuS42xdYGLQ4waUBcGjUlUTenfgqNzaNdi7i-vmYmhepDirsPNCA6_xYqUvlZSsiYGYCe5vS9_5LXIyyxtoqi5lGlH5aymfGhDfks6G8ZZ-GdUsTW-hpxd_3uWAySVQk7Yi2OautMqwiizZ-znIxM4L&amp;avtc=1&amp;avte=2&amp;avts=1691421474&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Носки Omsa, 5 пар</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>288 ₽</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.9  </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/noski-omsa-5-par-176143918/?asb=0tGcNYNcebH8GniZIdmoW6QFW9qhrDyKhYy7F82R5PpnYnmvi4ts%252BAH1NK8ukdRU&amp;asb2=p4nQSkPjOCnlsm1vMTqhx0BKEagtN8GNIKRF7pxfYvowl9W3H6eUStFn-YuQ3lY-Y8tU6AuNqNTr0RM6u4YYZ57WokqfriqJINFeroKiyzPqXE7x_LS6PZJ8yFu-yJlL0LK-W7QTYlzuqXQfunNzP-Hb7_BtK_RXeyrh6rADtNg&amp;avtc=1&amp;avte=2&amp;avts=1691421474&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Носки RedMos, 10 пар</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>505 ₽</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.8  </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/noski-redmos-10-par-874138108/?asb=5tI%252BVVqhwmE91rnXhUXTi659iEQyHJYpCdIfhCwxMCRDXqHTPzlzwxQ7vE5wl7sW&amp;asb2=_JQ_rrnPjbFdokCjCq4nrpRhBFvVkLs86isWs7k5V6N35wq8WPJkIuwMzVcNcPxrLxIelTuIlS7dIELEKVsz3xYR1DR70xPGwBfM6zWMimyyWizXuG09rY7Bg-ZQ7lFO98Cr_cYPa5oG0OzPLoqLDuCOq8Ccd2dz9HcHqFrP3hg&amp;avtc=1&amp;avte=2&amp;avts=1691421474&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Носки Nativa, 5 пар</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>321 ₽</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.8  </t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/noski-nativa-5-par-512424436/?advert=dlPAWlkRTfdgpheMT5WqPyPJwIKUfGScQcBS0UHlvo_Ewt30I8vGF3Ri4e0jK7AUOtZnyIvcc_mGtDgaOriSbg2vO5uTH0ZAtjZtV1f6oOZNPAb69_7hEY0x918XHnsUE28iCUynF9u1W0-HG0PaSz2dR9gi-7lY8Br_ABNJKybXtDEeuaSW2n1DNr8ACgI6hlYvcH40dap2_XSDclUbhO-gYnz76xqkcWRD4zMETL9WNyOb8pdUgMoLUW0oBLuPWEv12QkjXoN_lurNur3TKj_Y9a_MPQelEQQEJYyu3U1gwIdNIJxUZCAeAbIgEkqvHf1BDzlIAKpiKo6bYA&amp;avtc=1&amp;avte=2&amp;avts=1691421474&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Носки RAULLI, 10 пар</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>346 ₽</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.6  </t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/noski-raulli-10-par-412134528/?asb=E54zWWC2sooaMtFCE9DloCAg%252BCtfmGEhMncALAE4yic%253D&amp;asb2=-OwEuOKuLVjQX9UtbGPPnd9t4Pn5Ca4n7V4HSvLVFC1aaW5Ko5gL-aiRhOXbSKHL&amp;avtc=1&amp;avte=2&amp;avts=1691421474&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Носки Новомосковский трикотаж, 5 пар</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>319 ₽</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.9  </t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/noski-novomoskovskiy-trikotazh-5-par-226257662/?asb=WbRkWcMEfyu9Xe3lyr89clT4PbxmDHh5PKu8Z6VgkcMycaLxUQFzFpAlXUT4PD8k&amp;asb2=OMrzbTahDSfstYmVG2K9DOkBVFGlWV-jnoiMxBi4uDhentWLnyta-xBOkaHILOlFVFZQX-4IQi0Xq8-luLY2doMrrRAgAHcSsB9dL9oSuRbpnyXUPT0hgddWzuvb9Geqxj22WmEUIIi-sOUDFJ3_RoYvM3KGCfzKYyCOuywH6q8&amp;avtc=1&amp;avte=2&amp;avts=1691421474&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Носки Socks Leader, 5 пар</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>580 ₽</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.9  </t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/noski-socks-leader-5-par-992316846/?advert=NEXU1oVArXF1SkLotg_ur2DgfrNzPkjleawAMP2o-8xwRIqldsA3BPX5G5RlXU4J59Nwij53Vpl0HdG-bpJkcv8SjH_BfPRS9tNPRW07kYJM5quHoXlLYv1HGLqwBBzlqGJ2Bt6oReSb96Tp6DkvUoRJJwkeAGWxny-5Ve-cTqKMaZGJHMLaljd2ojNnVIt4h4TWf5N2_c48y6w4t8YIs5Z3xnK2uTtfXExpjvNNAbcnmHCCicl7CtNmtCCIHOV05v7qX6VHPt9-gjmdvjcdYRS8j3GvTHyz_b8NJmrFlg0RULY2N94bkrd2_Mn_B8TwKC8P-_Dv7nJHjla4JA&amp;avtc=1&amp;avte=2&amp;avts=1691421474&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Носки CALZEAMO Носки, 3 пары</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>284 ₽</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.8  </t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/noski-calzeamo-noski-3-pary-339237970/?asb=NcItCBaVpbKnP%252F1Sw8JfLwtbdXTQgknipgcW6gvFX1h0N0FMKFbBkaPf%252FtCCdOG7&amp;asb2=kfFXjCcS9IiYKbt_OusNJwTF-l_QUagEklrLcIgIay_WadZhR0RADaGUWFR20BBlyM_42Joq1QKBZYhItgP0S746sdJ7bJQbS-ARA75ly-52QPmgFbbyWZoj6aq0v1_wsBgznv1aNpU7nBgPfboFiV-diU9EMWpw832esJwKcc8&amp;avtc=1&amp;avte=4&amp;avts=1691421474&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Комплект носков, 10 пар</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>677 ₽</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5.0  </t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/komplekt-noskov-10-par-1039511523/?advert=lBuWVV-h2ztYwry5MXNzT4AmRizzr7S45JD1UwBsk4qiwCNYvtY-fycfRL4a4zqtEaBjL-hLVcfJNd8grK9466m8vnI7wE_fzqOzr3IL3KR3TinOIOoUhDWS42CYQXxPCgtPb4Hwp8yJ2gphj6VQ4fC2sfnUujsf4UAhcqigCSbX0gghJfb4fX-Awpmi9fSMxxWm6j50r5RNAAWjztfcAFanZKYaE6y_psPZJNEmDpbDjD3-QDULH8vHlnAw7xvhe8rOKNDLS023GXQfeP9Z6pRaL6gyJZxHuYVwhTx_c9GusjVEa1e97pm06BJCzptA5zAqAKx0Qpc&amp;avtc=1&amp;avte=2&amp;avts=1691421480&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Носки RAULLI, 12 пар</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>424 ₽</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.8  </t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/noski-raulli-12-par-811534170/?asb=TeqycF0b%252BFQuhi%252FjeictvkQTLKk8xpfUj8HDyHWK1qY%253D&amp;asb2=liRiWVb8DUJobaVFPdTVZWVssrtZ2vhV8DjUGAgHwiLgB7jNugs-Ze2JakHte0kC&amp;avtc=1&amp;avte=2&amp;avts=1691421480&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Комплект носков RAULLI, 6 пар</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>310 ₽</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.5  </t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/komplekt-noskov-raulli-6-par-266189449/?asb=uShbORaKoBwKTE3%252BhuEkwU7V7%252F4PKnUeHWi%252Fl%252BBEZ%252FU%253D&amp;asb2=UTMREkqtBQ6qXtHZ8lNzo9SeoGOlM1dhaQnIZe8DBgDgrO9uroXVtcz6JdwwCB9Q&amp;avtc=1&amp;avte=2&amp;avts=1691421480&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Носки DAPA, 3 пары</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>600 ₽</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Нет оценки</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/noski-dapa-3-pary-1091131401/?advert=4GWpQcX5wCghjEyMP9HjztyMzH8taYy6iLAjVuhVsuR30Byevopl2f6OlHDnltphVvo4kp6IIcohd21p8LHp9P3bslSlYd4z8g0Op-du1QaFtxBw_X2LHTdkVkBD7c98Q6ZjWKu4xmsQ4gQ7zxLwaMOK6kWa2fn45EvNyQpDcd5enenBMXMso_0DBfXEJsX7z-i8cgQSl39xhZFWopRfz4taXsFJi6sfn94gcBl25a02eYK0fJyH23EnkWWnJwGvIuEqYSTKrslCYZz7-PwZVEnviGxwSsOgAgniDKuo4ydNK8b8s5yPIzt2bSxw8SgzpZ7HTWwh0KQ&amp;avtc=1&amp;avte=2&amp;avts=1691421480&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Носки CALZEAMO Носки, 3 пары</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>274 ₽</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.8  </t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/noski-calzeamo-noski-3-pary-550721306/?asb=Gnq4%252FJxIZnRrLSba7qJ5XjFMYyRLh9wvYWTNP2Ze7%252Fi69w6xcmgBSLWT84g3Jirj&amp;asb2=3ae6jewyONrqbbmKll0WH9wpHxZlWBmBAOiHDiiMRVMG1zLOh0_56Lw0i22viuWz3Q7svO4_0YkNDH_nAHdykWPNHgYsi3DSpXRJfIXyaQcOK_L7mzzpBvyI6-6cs8qBoNVogj_xTHF8Fmpp7O60FG0_8j2IDeuv2oOw1HVbaeY&amp;avtc=1&amp;avte=2&amp;avts=1691421480&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Комплект носков, 5 пар</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>386 ₽</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.9  </t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/komplekt-zhenskih-noskov-turkan-865294409/?asb=66%252B3jXVZBTPsg2W5nQPonbGNgrhL5BxFSMWFK4en8hDBmIJrDNykS%252BGAD%252Bkye8so&amp;asb2=382XZEXPU07OSjfuD18CfbhtBuyF5v9T-e7ziMZfVlstX5VoeqAE9trwdyd7S7MG9kwNDOtaOctZwxSmqEn3i6lqZh0AfUbG-RM6Sp8xcCocNWiHF72wfa4gYGuoQNPlg2GpWxsCA9PiXz19vzqBQVXjrJMr-U9DujUhtWj_oGo&amp;avtc=1&amp;avte=2&amp;avts=1691421480&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Носки DAPA, 3 пары</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>412 ₽</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Нет оценки</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/noski-dapa-3-pary-1090930202/?advert=PocP4uz6SGOEIaghzLOl5A70rvVmMu9139OWjWK9WKNYhrb62SWLMurUuDbKrPrcPYtV-0lCoocZZbsSbFF_YPj8gzUguesOsf6zkD6s8RpXgOKvc8LyFJhM_ZxMX-_hMtxz9_Nb_YBbWG__1M29cvxpL8RS6Z8s2GrLoM79JHAlrikTuJby-MhYNYvQ96EUoEJ5Il1TybitvMpf5hL48zZlEinZo3tSEiuIA-XG8xXl8If8TjyyF-4CBJ7mVyffAcKdjaDy2PigzIIKbezAYAVSIt8ywL10HZWsPcMOyfUowvVn_U47ywq_6b4L2XW0-M_p_OsTxRQ&amp;avtc=1&amp;avte=2&amp;avts=1691421480&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Носки Носки, 6 пар</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>259 ₽</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.8  </t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/noski-sledki-zhenskie-korotkie-komplekt-noskov-nabor-6-par-raznyh-tsvetov-belye-chernye-serye-606625120/?asb=F4hsoiw14zaz8kIEPYFq5whlIbCZ4ZsG1gO0PZbzEuKM1G6%252FjZt6N%252BuyfAeWCux5&amp;asb2=RK6EHinjniesD5ENX-r50LZJx4K75BWQwIJEUkRsVliQTCkhsF7g866gj6EYxFvusUp0GvDBsS8IMWtBlLkCnePRHziFgElL6osx-JoM7q389-tycAFYBvvut9IqXTitBnG7XvwuhVeN6QYr9U3plDfHNZ0uflLpsfGRJja_XPQ&amp;avtc=1&amp;avte=2&amp;avts=1691421480&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Носки Подарочный набор, 4 пары</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>411 ₽</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.6  </t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/noski-podarochnyy-nabor-4-pary-1080792915/?advert=Rlca_D-axclMZEucyeevQE69OuV6uE5zkGDg5zp4ctWvcqwy0DBRt7OQHRQy3LbyqUG7LXdUVXjgCHuRyT9aoL5aiOG00WDyT9Cd9Xedohu5G1ThqIklPERGqlK0lWojp1cJpbXCYHvmdIXhzqpO-ud8OX5foUkfjrJeMbbTej7qU9zYUsJjUPvy9BUSz9JyxVUiIVXdt9MreDGGKbnyRGCbIxScXJ3yPlNYRgk9G3-qGOlE-ccQtyJVcamYfp1Epuc5v0W7Q_FkK_w8SeKEhj_ojQ2P512wOzcyyX7L7-yd4HGd04Yeru7QBF0WO7Xrynp-VAFeH14&amp;avtc=1&amp;avte=2&amp;avts=1691421486&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Комплект носков, 5 пар</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>343 ₽</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.9  </t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/komplekt-noskov-5-par-964910125/?asb=a6uEsxFzg%252Bl6n8cQ7G6X9DDoZkdb6C5iUhGSXD75Uo0%253D&amp;asb2=DSIpM7ShskxUA5AmK13MhY_9DL09wimGp-QGuSmZjaSykX8QGyfKWZelA4oHrgu8&amp;avtc=1&amp;avte=2&amp;avts=1691421486&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Носки Omsa CLASSIC, 10 пар</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>718 ₽</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.8  </t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/noski-omsa-classic-10-par-230685747/?asb=zM1jYzK3wYGbYfzJtXuDTSukaXRcZ1YqbRl2KGhbc28%253D&amp;asb2=OJFrt758pA3_uEaC3li3Zm405rdEpKM-QbFUxmJHmtMmApRsIapGxIJtdXjT3UxF&amp;avtc=1&amp;avte=2&amp;avts=1691421486&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Комплект носков Little Mania, 5 пар</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>359 ₽</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5.0  </t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/komplekt-noskov-little-mania-5-par-1083412762/?advert=gcCfY75ZqNYTqZuSu7p2gjIQLg4KoCWovKyHXFhZ6rpPNbiOsXzFxPew2K80_25xurh5GpD6o8kFW6U6ijZngPBlelDgJLTVeJ3wR3_WCUGLOTgO1HDMbVRcW9hzAqe6dL7s0IHGtW2iGt1T9YybsrCzMjPrv1Z53xEpS1MZyu-rBDatrmTXfT0qGYrkFzDgjXV_aNm8IBXD5Py9LRqcsbsIIDUkoIahUfDRbt_PFBPuZToryZATNtTnY3BiLVlTnSl9Tj7u7abLkaBXNLS2NIpVfuBNeswJF87MKUpaYyHIsP2xethDeQtWgRo2f9MM5uyutJ48xlQMHM80u4RKcph9&amp;avtc=1&amp;avte=2&amp;avts=1691421486&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Носки, 12 пар</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>343 ₽</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.7  </t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/noski-12-par-623156940/?asb=i2an5%252FjRcQiBfbV60Mm6EDF0%252FMRgZ3GllMMulxc%252F1OK8nEFVunNv5Z0jywI%252BfHNZ&amp;asb2=z97SCXJ2mdyIzgy5Rnl3eYn95O-wKo7sXZ_a6x9I3Q_q78rYFr_MVe2BUGrOKil4uxsAloDkFZZokiymrX6J574UlyMsVfq7kyV_iux7nLkoSJE43OaSRK-mh1M3hL4LsmFSENYzrzZabBh1qLzYUL8vNndGy52v58Zzq-T8TWU&amp;avtc=1&amp;avte=2&amp;avts=1691421486&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Комплект носков Turkan Базовая, 5 пар</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>243 ₽</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.9  </t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/komplekt-noskov-turkan-bazovaya-5-par-1003355888/?asb=dwvQF5fo7xhT%252F%252BXz0lrRV%252Bb93CpRexUCjLmgDZdqfYo%252BAgX%252BHvRr9H5GEEv7fw5b&amp;asb2=ZbOJdcbX6ij-PxEhH5FmNQmF7QmeXGeYYdc5L63HfsXNIbrLJSnYn1KPizVD25Wy5nQCGprbtYo68f-x0a9Uap2e8uzxXrToAdzCuraSsvLhoU1C5FqgD_yWSRDD2ajAySUz1CZaRyJGUyuqjDo0KWAYpKZ0W99cGjMCi6fFfug&amp;avtc=1&amp;avte=2&amp;avts=1691421486&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Комплект носков, 10 пар</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>385 ₽</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.7  </t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/komplekt-noskov-10-par-1064869263/?advert=EqonRyHg8YIaUKYCucnRAgiWqGNon5supIfpPTgehZHj7Kls9NcGJr6kTavIFEBBpmBoxFfK3LDZYnCVv37JbknRgRrWdVCDaLg5UQGOCtggmgJGrYk-fGOuTyviYWaOCV2QUgbCkRL4pAaQabmRPV9qnQOvUG6ktms6zxFWh9llKfG-Ve428eUAaKq7xoFdNPpdXcobU5oQK9ZS6xjh1urhRxVDtM8LePAkB0agCyuFIImBehuh_SXbAuyg6cAmdTgl0EzXkQCPZ9f1sAB6vM2ssTuJdfE_Oew9ntB0Do1TWYuPV2Z66WKfpBUdSpqoeZrEapz_8wn9yAJC6PLGP8gw&amp;avtc=1&amp;avte=2&amp;avts=1691421486&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Носки, 5 пар</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>280 ₽</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.9  </t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/noski-5-par-1058602927/?asb=jAHYjEKu0ohetc2nWkgreAbRMK76CkbGI4MV54J%252BJUk%253D&amp;asb2=VbU1WLaXKE6aFySk9Oj393sRwXYhuVB0mO1COHOaLL0wcgthiegmev9jdx-8c3a6&amp;avtc=1&amp;avte=2&amp;avts=1691421486&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Комплект носков Federico Calzini, 5 пар</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>293 ₽</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.8  </t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/komplekt-noskov-federico-calzini-5-par-929169997/?asb=8dAOEmFObD8KGHX%252B%252FcETTZD934393qNJnp2eWGW21yo%253D&amp;asb2=zPCRRsMMFAH5lZasUG3LbQ31Neos0BEVhrqb4vTVc7mdLAXG0qI98iadtV8eHBkr&amp;avtc=1&amp;avte=2&amp;avts=1691421486&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Комплект носков Носки, 10 пар</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>614 ₽</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5.0  </t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/komplekt-noskov-noski-10-par-1061721969/?advert=1dqKu8Nj-Cm9cVMUb1iU7z43a2pkJOQWBoFlf6mrPiRpJtXynpuVLkE2ssPEu53JIXe8po4u9LqRiDAMwhlsGy4QxZgvBLQzjyNao2LxX2tsYHDWRoBe2ugrWAjBRqieZFGAEuIObflTa8UncNzpLmsV9FziE_KkKYuAhJ7tiOAH2YZIj94bLROw0qqXi5Rq5w7heXSMtf9kmqESGbULis3Kbf1k0Fo1DQ-XhG3IPrzCuwHPqwqge8eMMfPH_iWPE562Az0mTCTtjcox38A1vymEqM-n8coILn2ZjYdAJVBoSWcuuFHhIMtQxAn5SR8UaF3H9VUlFuk&amp;avtc=1&amp;avte=2&amp;avts=1691421486&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Комплект носков Turkan, 10 пар</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>533 ₽</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.9  </t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/komplekt-noskov-turkan-10-par-841769846/?asb=9n4dzR7t8Nmr5vggKI25QJqjvFJvWZvBzRiBnK7kAopyOD4128gKmqfWf33VnxDa&amp;asb2=tBb55sTbXTOW9m_QdlLwK3rgss5pEWfBDmPjNFDxrkj0z0U3WaVfrVq1wvE4up2TGRU_33LT0ZZPgVfx_X2p9B7lssd3_n5ru2zFeCTjfc56BPXTwalLKohM_CBOC0FUHdVbu2LZSvXhgXhtThfTYMsvwHedfuGK_zG5NWwdiSc&amp;avtc=1&amp;avte=2&amp;avts=1691421486&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Кроссовки</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>759 ₽</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.5  </t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/krossovki-975504192/?asb=V1de%252F4AgwYqK0fIi3lGEOz4QXMDrYM5IRu8oIf0VIIdyT5uU%252FT3gNRWqYlGwclro&amp;asb2=8VfbkhP9ElqQCBEkBC7QFeJwsSB17J2hCEJ-Oo9Lo4BmlojSXpGJt4Le4xufTVHONKb16brNSFeH049EwOkQDSxNtWOcCXf9Xot9yg6EaspJAjcYtF0OVKqHFIxYTrzXOLfUM0VxQqfoHMHRQCJsger-jNAVxWJ5ohiZS7zk1m8&amp;avtc=1&amp;avte=2&amp;avts=1691421486&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Комплект носков GUMILAN, 10 пар</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>370 ₽</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5.0  </t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/komplekt-noskov-gumilan-10-par-1004082131/?advert=y4nAKiNsHjXVPzGhYknxar19ArjpcG2Nhbwa4gRqEPY_mWp1aWGszmdmEinmM3GA9ZsQQDjRXFyCLMT8DBOSCHugU4DAZ_1Y5vOa-KcNqZxIaTMXNLGUQzpqusOBlUvlfNXad3j2KRCCyuamEz6iyKtUDZwjveolPLvK0FUiUpBpjhzEtXhhFSnr_WMi5a8vEtbVqiIVsYPrzJmljPThBLUT-6cQsf0SjQUdbLtpYwc_eeWOiD0Gz9aoYImzmnDcuj7t8jPSaGjKOdgmljDICHelqiC42aE7tkxrLS2joJqUG5xeGc-83b-9-uFo4_NLw01HvWuwQwk&amp;avtc=1&amp;avte=2&amp;avts=1691421486&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Термоноски Пехота Носки, 1 пара</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>466 ₽</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.8  </t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/termonoski-pehota-noski-1-para-982379357/?asb=8789HuAc7jg1HwoISmk160Zwp%252FEtbjxlR1Yvor1I1Xs%253D&amp;asb2=oS0n8ygvt9LWEsZ9q6Nt__HNO4zudY1gJGkFFv9l_MKKQx64mv4ALvg8b8AuK_SY&amp;avtc=1&amp;avte=2&amp;avts=1691421486&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Комплект носков Класcик, 10 пар</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>446 ₽</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.6  </t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/komplekt-noskov-klascik-10-par-470118906/?asb=V7Sg9NZnINVhggsEDAWq3CKbuudOfArNb5bi7qRitJc%253D&amp;asb2=YvCGuP6HOnjv8nigI98cBR-AEE35AaaRQKMRYJ-2iICDVN65V-P748ruJXrjoT-w&amp;avtc=1&amp;avte=2&amp;avts=1691421486&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Комплект носков, 5 пар</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>523 ₽</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Нет оценки</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/komplekt-noskov-5-par-1079948137/?advert=O2Zf_ff1m0qOo9OU2hNTOlTopqcH5BTIcDqcZzZWahRn5h-Zhn32i77zKklW-mBP5fihXboeu4DBZSRMMUfyu2TtHYwjBc9LvRwWCley6zuZkC8d0P5UQDiZYvKGKqAoxcZnX9uoAz-VMcCvemzf8MqgS94hBOGSAh2jyZWYDal3GWy1Iea1aZM7M3sr9x0G-gErT-f2BjyqimYvPkLgyRlIRON3C2x-weY2tbgGbsMDG5PQeIHsE0BthHUv1ezcDzSkM3rZXlpVD9psd3AZFF61bLa5TYm3VWByn14GffBPSKI9sK5Ex_Vanz393fX8ukLmoOfCc6BugL1vHZcpK7_9&amp;avtc=1&amp;avte=2&amp;avts=1691421486&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Комплект носков Сартэкс, 5 пар</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>399 ₽</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.9  </t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/komplekt-noskov-sarteks-5-par-685353936/?asb=suHcxyAGUXQCHTAKCTUgMFD5bplbUTcAPGK0gNQ0pqOkRzXJ9QK1iI8IAEWo51VW&amp;asb2=-hd-2g5ZYXQ9EGJmXkbxPW7Zn7QtEsF8iRUSrDYJ0Wq4mcifqOdehZBLhyaa7iGQNce_K_X7ZXy14rxq6FJrBKJXlU1O5kyjcXYoLYw5kz3OuLSLc-jVnu9qQh2rMcZaDuQ7-fAI6SGjg2BrOFAsDlPQHYiVvRT5rz0er5eaVdo&amp;avtc=1&amp;avte=2&amp;avts=1691421486&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Комплект носков, 10 пар</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>300 ₽</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.6  </t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/komplekt-noskov-10-par-917827774/?asb=HZEzBaWNGslDLTQ65Oe3WGJ0XN9s62mPt1DAgBjS9Ydxng7X0cve0MSD0Trc6t0k&amp;asb2=Z2lLjNcLzJEpevuN2kbDJfC_nhmCQQhqNejMYwJY4eGu2K-GLcb1YZr2WNtuUWm9Pr5_N2wlvoSAAqOeiR9CjcaKInJpgbA_fmcCi2BPPk19tznRQL_VgASoAbkbBGhVCp768JPc7IJ59gf3G9qb9PIc0K9p8-Ybh2FArqfyIf4&amp;avtc=1&amp;avte=2&amp;avts=1691421486&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Комплект носков, 5 пар</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>295 ₽</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.5  </t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/komplekt-noskov-5-par-1027102098/?advert=YnFcMniTo668Kckoy8CdrzCoH0V57nPxIjHGijzv_DakoCFPYkvpF-H8WpoVlzzWp0B__jV55GHvj_06lZJaJcCfUa0b7y0ah6tmj-oGe9pPUCS11vrHJZ1DJ3biS03mDqNJLCioo1xoO84EirDjS6DSdJ07sHCLelrvoqZjRdDKB0PX8yuswGTk_Oujks234WRJ9ScEVX8WgqDBwx1lIHiBG1kow5lYYbWrFwcvdvEspGuON69g4OgNZdKTzcl8kuWOAi6CM799As3LITB5EGoQj8uAyFah69q9ry7FfV39WvjpgrlJTZsDW8wgr8SX8HCjRBUWWtg&amp;avtc=1&amp;avte=2&amp;avts=1691421486&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Носки RSOK Eco, 10 пар</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>412 ₽</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5.0  </t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/noski-rsok-eco-10-par-1079210892/?asb=HDJhvinY2OE0PqiDoSgY1Id25MQcyICCjGwM%252FjSFk2U%253D&amp;asb2=kfldt5K86m7fi3SY1W2SGx7yzmeIRcyMFYoySujeMTmjXObwclmum14Hmzfcv9lsc1gIGE7NR5A-jnfWa1B6ARKxla9DvADD0Z5EUe5IK9gTtlGtBWPmX9oio0mnCGQrMzF7nxGjFbMXYVlL2J6-IA&amp;avtc=1&amp;avte=2&amp;avts=1691421486&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Носки Фенна, 6 пар</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>304 ₽</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.9  </t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/noski-dlya-malyshey-6-par-so-stopperom-901939031/?asb=q%252FfIlShobMJn4oEAHX2SozQGBC7mVCmYxj3pS5BCNmA%253D&amp;asb2=5ptM1x5FFDkmxf5YaHG4Vx8YNF3YE6JJvqoGvUCYlwmIJkv-Wlk9BerQD_LqYKKvzFv8YkHp14fjqMCIKhMRJG_Loj97zdk7AdQF0yYGW71a_8asKI8GM9-l_B32XXDTUId09HQpwVgPWEgVv0a-IQ&amp;avtc=1&amp;avte=2&amp;avts=1691421486&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Комплект носков, 5 пар</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>404 ₽</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.8  </t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/komplekt-noskov-5-par-1089176888/?advert=qVm4OfRFbf6I5BYdCZKJhepWODvgUAtHUBrMQeRL-VsoF58Y7BVMtUg8CZznC0Ju-TvgCc_4tNuPKw1h9gYUEfo3P5Jaj6alATRBGYJgLnvyEmGn5dwg6kCRK1zgZ9OAc9OcukqWHLVtlIsfIZvtTZMpUtN1jrcW06mOj1teW7THE2TpV4P2nSublVRdtMXr0J1xpzds9GIw-XjGkoq6w3k5-mR0n__rA9gU9qEumhWZJjY8chMH5CDj_084ivzKp-MLuyL-kInuixKU11vTtMqiTgfI5wiDFAgUcvl5eN6PapsdLNwmg7_1d5g608S4272eWvj9rls&amp;avtc=1&amp;avte=2&amp;avts=1691421486&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Органайзер Hausland для хранения вещей и одежды в шкафу, складной, с разделителями, универсальный кофр для бюстгальтеров, нижнего белья и носков, набор 3 шт</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>686 ₽</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.8  </t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/organayzer-hausland-dlya-hraneniya-veshchey-i-odezhdy-v-shkafu-skladnoy-s-259164414/?asb=StBdLAI7dnGxpP3UVZXcvdZxBwvtpTywmkD4ReGUDa8%253D&amp;asb2=xt8JcG4ordo1b2MjCZEd8XZFUnAHNbtJZUVM6OLJWgbafZrF1NEs_-prEA9T7rQB&amp;avtc=1&amp;avte=4&amp;avts=1691421486&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Комплект носков MORRAH, 5 пар</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>354 ₽</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.8  </t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/komplekt-noskov-morrah-5-par-903217453/?asb=EvmoQpu9sjx91IAMXCuoDWn1MNYvbB0HqTIbmpuatlM%253D&amp;asb2=rJTrFZqOYDPLjE3nGDJinuzmqlRR0PCxm8TlOFkt9qhdgievOBYin0mrkD8YEIQb&amp;avtc=1&amp;avte=2&amp;avts=1691421486&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Комплект носков, 4 пары</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>309 ₽</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5.0  </t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/komplekt-noskov-4-pary-1058606207/?advert=A4j-m1AEGh7asQ6qdofsEZUepV4sW2ohGf_G5-vNCuds1uEyqOxP2mmLO8iTMIHJsEHWXY-aqJTMnQj_AIEHgoAvepgGa9h9amBeGd9zfP6I1v9Kl6C-SNtyIDZufYqocejKLt7ConLzSlyG6PG4kmNCIzqD2u91IQH7GWQ3jrHWfHtB0HGsAbKrFhCu3LudxqyExBS8kfK-GZll-r0C6WJ37bShx0r7d_rX3GjZZbkv_xxGOiBoN8rKyvd20N54vdH6AzPaqgQXYHPgJ3egTyhT3C8oeZj8FOeAkqCIy046AcVLnB2FCVVpNbNToCiad45nNjPmCJE&amp;avtc=1&amp;avte=2&amp;avts=1691421486&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Комплект носков Osko, 10 пар</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>466 ₽</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.9  </t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/komplekt-noskov-osko-10-par-962939035/?asb=e2CmKTJEfGbdI2ljI%252BYlHVGRgreUTD8mThO3t2CF2Ng%253D&amp;asb2=ppaNEvQesw4q-0sxJTtJafXInnoej6NSLmM5jP8jTYCfj1ZYTt7abT2CxR6v7DnN&amp;avtc=1&amp;avte=2&amp;avts=1691421486&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Шорты Макс Экстрим</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1 095 ₽</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.8  </t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/shorty-maks-ekstrim-263789245/?asb=4%252FOYZWHsu3MCPFOJGWmOPkvDwRwpCWW%252F7PN0NhtnHVU%253D&amp;asb2=jUeW5LPE3N6ORxIfQ75SdZ4jQadj128nZ5vTLUepeg7Q37_6CKYOMJNT5ypIDcMw&amp;avtc=1&amp;avte=2&amp;avts=1691421486&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Комплект носков, 3 пары</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>513 ₽</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5.0  </t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/komplekt-noskov-3-pary-1006398521/?advert=XFmELuAGcoN79wdc7MyzVMCUdsiCBI4wGzjYhUSGHgIqZiKGEAWev8oROsfHokBq7I1lN_uWDWohjI9tA_3lZLHn9_tJKigDE_zBuiNyNhxfCWTy4HAeM7PqkP00XhvANACfKw6puzdFxb_4zil9EIOAXIu3JFmRqpuCJVK-ncNG_ODXkU_v8a4rKSzAx5Se20FSATQC8nP6qlzefCEcl9g18xS8H0E9hO-cy4E8rJmAfsRZThJLQ8WvEKHkfNd8An5_iagfrUB6z0V08JuYML_id040ysicsplgHTNpFUrpvSascDNA4OYCpaWRpKKDwKD_xsM6ezA&amp;avtc=1&amp;avte=2&amp;avts=1691421486&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Носки Мастер Хлопка, 10 пар</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>423 ₽</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.7  </t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/muzhskie-noski-master-hlopka-10-par-845200374/?asb=F0Rwu2cA7WqmuzTXPdi6OQxJndLkBtVqY8dqOtFtEN4%253D&amp;asb2=RsrzFqkygS0Da6aHnR_pMiGRVUGTHsF222QASm3DohRFuKVmYgxwJhrml5beMbfD&amp;avtc=1&amp;avte=2&amp;avts=1691421486&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Комплект носков Ник Клаccик, 10 пар</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>504 ₽</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.8  </t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/komplekt-noskov-nik-klaccik-10-par-581404808/?asb=lHdvek1%252FKgFnZSu70OqWF5uB9H0qepsmCg0EhvJC%252BdAOEfavAjMVzcd4sS%252FGeBNg&amp;asb2=ou70x45FMr87oy6_1nSUrhFWDMBC_dHyilXojzERvmRHpG4uGmvRWDeL9vBN3M0bFWYMJUSu9EXWfQNZ2EKh2WRVLwU6XoNiKNn7z5nXb-TFz01nZVKMWgYVofh2es88NHOuwHAdMdMy1a_rsU0tNP1hrjtSbbMna25IPjYBDAY&amp;avtc=1&amp;avte=2&amp;avts=1691421486&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Комплект носков MORRAH, 5 пар</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>545 ₽</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5.0  </t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/komplekt-noskov-morrah-5-par-1031892812/?advert=AnC3dSNVVFuRZQfkWy-9QL6E7xdrV0Ts86d6YFTNsqvLxweTJ9ueP57sm2DEqsa3dZqVL66mt_lcHhPddOaLkqIh7139c0WVxP0wcx9p7j9uml7kzPvf5aObZkor2yanm5XbcIDPnIlhxGZt2oxJkkT_y80sBaKmsrQjQxjskEBu_XQN-oZD_JyxtJ-LyVUZ3jfeSnm5VkygnaEVI7nNqN_AZyf4AmOAoShhw8ZKzXK9pzVbZkIGrTG4E7GQpPtW7OlbHzfLHLXc6CsYOhMT0rDK3a-lHXkprFTeHy-iStfuEYe7udlxh_Fi7dY1sML4nCMtOWvsKx0&amp;avtc=1&amp;avte=2&amp;avts=1691421486&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Шлепанцы Crocs Classic Slide</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1 210 ₽</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.9  </t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/shlepantsy-crocs-classic-slide-178823645/?asb=fPX5LWTR4eih6zG3omajYBBChrnlnOYsXh7oZ5262L8%253D&amp;asb2=eZIS2mz_s2GhLO0HQ-UQ1jCov-mrxtLhHYBBwgFay2VYofrbZo5tpxhAxwpPzu5C&amp;avtc=1&amp;avte=2&amp;avts=1691421486&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Ботинки рабочие Мистраль</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1 028 ₽</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.7  </t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/botinki-rabochie-mistral-203558200/?asb=eYrohiQq7xmZs2mSWsLVeqcJlogCG6Obnce%252FXhPrz8I%253D&amp;asb2=mBE6YffRrpTaNASQ87xeoMLdJ4zxsgRggQsKMRI11bI7o85-4-gL4WdfUK6EPQhr&amp;avtc=1&amp;avte=2&amp;avts=1691421486&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Комплект носков Turkan, 5 пар</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>462 ₽</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.8  </t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/komplekt-noskov-turkan-5-par-947042608/?asb=zdl4za9uRcFYZAqF7qaAKkY4AZWk3xdC8QW8Ygkth5A%253D&amp;asb2=ImTlDs-HYOZfw_5PezVheBnCCDA5_kFuNbpQdpw4BcxFtvLqooEuoV7bTPjPxx4w&amp;avtc=1&amp;avte=2&amp;avts=1691421486&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Носки Omsa Active, 5 пар</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>599 ₽</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.8  </t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/noski-omsa-active-5-par-176138521/?asb=p66WTyxr2%252FDctaDKqHy6V1Jzsc4q18ytdQxWidC6jfA%253D&amp;asb2=EZHAab-06POyQ5zwmkzG3sOWaMlc6tRHzoFCUxFE8FzQEjlCJceUBdEUkmSVxRhK&amp;avtc=1&amp;avte=2&amp;avts=1691421486&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Носки YIMO, 5 пар</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>253 ₽</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.7  </t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/noski-zhenskie-nabor-yimo-5-par-mishka-839995338/?asb=SgBwTvfNhM2P3HTMrc%252B%252B9CXcAx5horNAcp3YADwJaTU1leaqNAWnIwkC%252B14nhSHk&amp;asb2=jU3282nDli2KWtVA2DLKSXaOTTeb5ibkJcRX--HKWxEXsd75j56rGYq_ckPdzwDJmJdw_9Qn0zcTXUZwq2cY4czZk7upXeJ0kYZkCziFomVTZ5djUnY423B07hkHSr0kj-n7fNWvNTA86I887Gkn_vAdQISJFSasUq4-KSNkR7I&amp;avtc=1&amp;avte=2&amp;avts=1691421486&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Мотокостюм Leatt Это вы можете</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>6 833 ₽</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5.0  </t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/motokostyum-leatt-eto-vy-mozhete-973528595/?advert=_qZq3JoCn18Bej5hD_iGG0sH3bVQHTlCF6id8ft6hihEH59PdF0yIP1_r8pdaSIdtY0C_euAlXOPhSZCIZV4eTXRJr1lEdrhtyPIRGfrIH0ouMaDMvWQ6LA1MAfZNGvj6dLi3ofRwYjfj76kkBByv7novFwCsiwcvAlJfQLAhOwKvYhG0w9RyMUJn5V9L3zyavN7s3_zrwvqgwwu-Z7AJWs6KKF7CCJ4HyXxu1CRjMDSBQJwdfuHuUBzij5kSa_PHL12YBX5YrdwZdA2sh6BSaP-eVdFUFyVT5FbVzc0M3EjANC1zErfudRA3H0AgcArP96KG9MdKyulV8-CgWPmVcw&amp;avtc=1&amp;avte=2&amp;avts=1691421501&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Носки RSOK Eco, 10 пар</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>412 ₽</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5.0  </t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/noski-rsok-eco-10-par-1079210892/?asb=DWWUPCcAVkA1%252BEGdlBMV1LVRW6n1NNXAsLwAPASbBtU%253D&amp;asb2=WjPzwQmJ_bfv3nWmzYpk70rE2OKCoyYBof60znQzRg1rh69fecZZng6OhS-klCmGKZqrwc48prVqeh_hMyuqA5i7Sa2-OA1OuVEatOUqTHSCooZ43000IDu_aVEM21B6vO_gnqSxO8UM_cmKWtoi1A&amp;avtc=1&amp;avte=2&amp;avts=1691421501&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Комплект носков Белорусский хлопок, 10 пар</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>293 ₽</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.7  </t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/komplekt-noskov-belorusskiy-hlopok-10-par-525112658/?asb=fg4rA8ynKkMhkYvrA2hVLRK24juQDUTnwHuA7qTCsvh1BNPyfGOFxYRMWWXxeQe0&amp;asb2=BbCd2vtDQ_wbcAb37G9CC2JhA1kuj1uxhYc-qO5kpTFBWsy4SG0p27CPejheiCR8lavR9OpK-U37DQd4-w5BW2USpzAZ8kDo7z3IUqTJzBi_8mHN18RU-cQLwSA20ZkUIXKg-3y9RUORCWEHMbKV71qTOhn9QqNWvJ2G_W0xUKs&amp;avtc=1&amp;avte=2&amp;avts=1691421501&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Комплект носков SPORT SOCKS Спорт, 5 пар</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>449 ₽</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Нет оценки</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/komplekt-noskov-sport-socks-sport-5-par-1077618213/?advert=dLnt4wfzZpzWD9fy3O6xXlDZ504QUOz-I4LOvNWrBS-ptgge7AiqNUEtpT_GSgIW3vwP5rGVsmhsLZoGXgCJl9yOQ5m1Q7YEY9RtwelXbRan4pDKZHnjhK2sVFeceFtMQdJtlv33kaOl482uDUYL_LPZzMOvH2btn5lcYFtt-Xb7VFirfYxdcKqcIuZvLOM71940JwyR_dGnLGgn8Dnz5sZtp9jQ_H9zNJExm8yqYKmX1V66ZyXrCf7SZi9PP8OnNzbgUi0qw7Tv-MlTsd0jQrPtxv4bKIzNNrYX7vIQQyeoFrxpykYN9T7r9a34QZ2P1cW4cLPZLr0JnMH-4XlXjD0&amp;avtc=1&amp;avte=2&amp;avts=1691421501&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Комплект носков adidas Adidas, 10 пар</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>536 ₽</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.5  </t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/komplekt-noskov-adidas-adidas-10-par-1022152702/?asb=D4E3Ks7XEO%252BRXfTWbMStpcvD9qw6qCbXiC7blDjK4wI%253D&amp;asb2=pVP1m_ftvUOosNvCX5Htfk17z2XaWDNzYUBn6f9straw8OGceICB3FJ6VgEOZ8qq&amp;avtc=1&amp;avte=2&amp;avts=1691421501&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Носки Клаccик, 12 пар</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>486 ₽</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.8  </t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/noski-klaccik-12-par-761115774/?asb=NDOCA6qO5Q1CrA5Xslfj8ubcnhtKyHYFsSR99xD1wIpJ0Fj4TrOHTMg9dxq9bMWI&amp;asb2=6P8slCrMv6zFHMSmYwxj4nZYh7N7g6t-nr7yfhm89I0W8H5Ng3y1yvJCEUz8631SiX64YcJUL3vB4lc6YT3vOOe_9bG-rravj9k3rWe2hCzU2v6vVpeHZWTLz-PDE3-IKkPI8kEuibIfNghY7Pc7i0Srw8POV3pflP17flMqINo&amp;avtc=1&amp;avte=2&amp;avts=1691421501&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Носки SPORT SOCKS, 10 пар</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>778 ₽</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Нет оценки</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/noski-sport-socks-10-par-1076609759/?advert=nBm9c8fH43wurIRa_YL-ap5WBM0JtwyqDL5HnTKCdnL9W71SJkKrTixmbG3f8dr1GNbjnN1y4ZZhHcEBQ2x4U-KOZ6-zU7tEvvHQD1GcXfwVn_NBacnVjF9OqlraqTVqI5TG8yEAslU-6FWknqfmr7rSOA_Kh9EDmlnoH0ruww3PpN1VaEAbAYww8iLfGM-l-NbQCXMXo8swHUENUwYpLucC6Xm6VhSytWMfSkU83H9jbUDYn0mltQsCDZBqQVLQ8p2RbJTJAS5YxzB8IbQnmKvbU9D6kKyGpNx4tnvpYl6iT8EfyUVORSFTd_FLrnv1Ho4v4VEgVIOif3j9EMkCew4&amp;avtc=1&amp;avte=2&amp;avts=1691421501&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Органайзер Hausland для хранения вещей и одежды в шкафу, складной, с разделителями, универсальный кофр для бюстгальтеров, нижнего белья и носков, набор 3 шт</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>686 ₽</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.8  </t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/organayzer-hausland-dlya-hraneniya-veshchey-i-odezhdy-v-shkafu-skladnoy-s-259164414/?asb=%252BmHxfytZVaWEA5tZCCi6CSf7s0fP%252Fcu%252FPSIwMUo9hTQ%253D&amp;asb2=w6F_SAgbqU9F_zMGYqJha3lW1hjPwiELhgLF5WQVcx2Nkxh9Fbgfli-9Og2lfR0j&amp;avtc=1&amp;avte=4&amp;avts=1691421501&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Комплект носков 13EVERY, 5 пар</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>218 ₽</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.8  </t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/komplekt-noskov-13every-5-par-1061683094/?advert=IvUlER6m_iDsKox--Zs5bncfxepnlvnCUX1DlYn6XPnXpstp14F0GD0J86AeMwBTfxbJukhIQxJU547lmhOkDWQUSw2nR2Oe6lhFK36g7rH_UIpaLId3wEQq1o4lYiBpoJAdCD-h3397CFl9hVpc-6MNQ0wVU2WKaVy5ludWPbkf3vF0fPJYbnJwZ9FeAowJyBL2l2z1lJsS8jTBLRTYA_Vk5c-TF068gFQTD3w04yjqJhuk0s_whicMQ0PqAHHRJlh8DfC9U9yWRgnV3JzVAbUeYHQPIolcOEIozlLsN09cvYWPpNf0IHztIkbyPgbuZA&amp;avtc=1&amp;avte=2&amp;avts=1691421515&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Комплект носков Носки, 5 пар</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>334 ₽</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.9  </t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/komplekt-noskov-noski-5-par-934448701/?asb=tCW%252BGg0BnCo06K2pwqAcqddR%252Fn2tullncioIOqzXWGg%253D&amp;asb2=Tf7PQN0KtXxhXOo8K3NjRYINH20oPdW7hZgV6nu1xJUlqlySuYGhZkXUzL4CntyDVwkCwSncpxsbwlH5COnaYnNfv-1TQhGI6ygAftLAgHvZ-dUk0SVXbUlSowcog-MVG1UonDVv8pDhqDSXamoq6g&amp;avtc=1&amp;avte=2&amp;avts=1691421515&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Косметическая увлажняющая маска для ног / многоразовые СПА гелевые носки/ Педикюрные, силиконовые носочки</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>296 ₽</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.7  </t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kosmeticheskaya-uvlazhnyayushchaya-maska-dlya-nog-mnogorazovye-spa-gelevye-noski-pedikyurnye-889859184/?asb=i5QgqUNNMILJ31jdIicsS5vmt00Z3I5mda0%252FHXmdM%252BrxszdeoIeUMPTlR5OAxEyE&amp;asb2=BnfXtNE5NBK3T6QAiYkZdn_T7m9HWTDJ97e15nQpKARW1Az65ngmt0xEEWBa-1qFryZP8A8Spt268FPb0bCMqGJuUWOmyqnqmlYFKOLchmWbwe7cbIk7JyhHhxMbQw50NdBUC7rvghG0kxSOHgfipxn_tcz2Zw4-cfGobb3769I&amp;avtc=1&amp;avte=2&amp;avts=1691421515&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Комплект носков, 5 пар</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>413 ₽</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5.0  </t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/komplekt-noskov-5-par-1083183316/?advert=aD21EKTwS5-QGpJ91PCgvj-BnhfGt4lZkpzT9aEIaUvVKDn9iLJZKY3cVoW73IxFw6I22MF7qjjE7vsx_OLPY6UzgFACE-WS-coMaTRUQkMyTZ_YlrsUV3A2KnqTskq6cUIpadRtS8srO_7oc5vwz2pOgND47FkZpPkL-VHvPP62cQT8VqkXk2b0WPRPSZkGaK4RSGIkScVPh_YGjM0Qs3msLa4fHVYtKRVowk21V3lQdhyKZ6rXSckSIe3dIYhqfhRtfEmdozK1qVEWI2gVLbSTlP2I6YXtR5rlhnd6vMKB5chLDKhtU6S_f5KYmePFGGJ0WLZrgO8&amp;avtc=1&amp;avte=2&amp;avts=1691421515&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Сумка на плечо Journey</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>723 ₽</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.9  </t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/sumka-na-plecho-journey-625093781/?asb=utUb1xfDAC1JBE%252B7PgrTPdiaEFbbt%252Fu4JXL7c1FQZjOwrhLrd9GXNtjlg7%252FHqM6O&amp;asb2=AdRQqxt3jMM7cf2AwrcxIXunJ-AGPDkLNfz9ZPCk94isKNU6wZqzOKVOwvxGfVA5xJ5G77BQYaNVKy_7xXO5-UC4A-C43dmngeghmHvvJsnoUkpHj5wjWakxBJEg3MDThwwSzx811fJx54Pw1j5GuQEHzCjXZMSczdMG5MnzdxU&amp;avtc=1&amp;avte=2&amp;avts=1691421515&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Комплект носков, 5 пар</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>742 ₽</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.9  </t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/komplekt-noskov-5-par-1063421872/?asb=uCeP5i05CDeWh1DUqIRN9B%252B%252Fe89If%252BfgXliY2HM1W1k%253D&amp;asb2=MwmZSOXkJS2EsEm8pkv3i2LRwTDWEVl2WyCe0Zq5eGFNEHQjTvDZGAP0rB46KYCP&amp;avtc=1&amp;avte=2&amp;avts=1691421515&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Носки Happyfox Для женщин, 1 пара</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>305 ₽</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.9  </t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/noski-happyfox-dlya-zhenshchin-1-para-307003853/?advert=XxeYUnYYXyq0UFeb7KBREJ_2TkBW1ozDRTIqO3TmjJdliUbP6KuLFL1XkMQOY-O_C89WtMu9FKz2qvN-A_fkALfeARowFDbKI0wJXL7Ts5uTVrOV4OMr0eYWwQrgcVQdKYtlKVdnn_CvEBrUUV1oRLONvOv7ZNGSWnppx9eOYpa3qAp025ocE_fROEe7y4x4-qV_xzZC1y0pI0_GZOnu-E2_8SZVQD-qWuKGRw8dHtF_F65QGwkBFPxf3lUYOnenoOaz5yz1PQj2BD07ADB0r7nBRUTZjj23MN-Imu5qJ27jlaQbiD37ILt6Fr_J5mfZftpl4OnA0fQ&amp;avtc=1&amp;avte=2&amp;avts=1691421515&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Носки Truly Wooly, 1 пара</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>299 ₽</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.9  </t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/noski-truly-wooly-1-para-302404341/?asb=iM8kgmxiXy8NB4bgvLJxhqIClFqZmv0lFvcPmtDGwUk%253D&amp;asb2=lYzt-L-mWUXQ89OBaSuVopg7_3JSOdnqE6nUnzjbaWxOFQqz9Rl5PE0IrVThZCg9&amp;avtc=1&amp;avte=2&amp;avts=1691421515&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Комплект носков, 5 пар</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>287 ₽</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.9  </t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/komplekt-noskov-5-par-932522059/?asb=2Q%252Bu8k0RugFVu22UCVjmgDJgPYonHnknwb1VPia8yug%253D&amp;asb2=Zg9kIJDvn3IDTM-a6UlcwaPsSvkTqL9NpWTJB1RJp1ncaTsBlVHHOfdbUnS4yOvY&amp;avtc=1&amp;avte=2&amp;avts=1691421515&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Комплект носков Happyfox Детские, 6 пар</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>446 ₽</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.7  </t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/komplekt-noskov-happyfox-detskie-6-par-307008414/?advert=_oyFzDs1Wm8GRKh1dJzHxWONNVAIGdHne5oT7aOTlYg1R5AUV-tLd1xBTNT3FImJxbzShvnFFwnmyGEeIlJ6-v7GlVYTc_0K7NgSIZtUiWTJnuZreM7OcJhtGXriLhpLU6uXIAi144NnuPYSYKHfrItQiruO8x1whvMDB6lkM4pnJ2T6yoUe6IGZfYhquj3p0t66doS-ZDyVVuh8cWF6TLk4scWB5Un5cie49bmwRhGOBPH_I1eM4iERCxg0nWC7wwlhBrPkik2EgURhbGiQ-wstqZMI6D5sSNfj1DyvoQzyH47w2EToQ36w31UI_dryddfoQMdursc&amp;avtc=1&amp;avte=2&amp;avts=1691421515&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Носки AMIGOBS, 5 пар</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>322 ₽</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.8  </t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/noski-amigobs-5-par-503931650/?asb=TsW%252BFjGbf49UoQJASjKA6CCjOHdig9NeWHDsE1k%252BxIc%253D&amp;asb2=0maPx8lXIvBdAIvJ7xodoSZdU-hR7w6yyZCnaNYX6OzMlBBVMH9peBR1Xd64IF2H&amp;avtc=1&amp;avte=2&amp;avts=1691421515&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Комплект носков Небох, 12 пар</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>520 ₽</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.8  </t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/komplekt-noskov-neboh-12-par-841048136/?asb=E023zFkH8MScJ7e3qmElBcj%252B%252BLbgcDWdpBDaRY%252BvLFA%253D&amp;asb2=2BrdZIMvHYVbEtW1CH-6ASMn9Nl9kGTXSeGORVIu-lKDQ1B2Trp-UC8uSmTtOeWu&amp;avtc=1&amp;avte=2&amp;avts=1691421515&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Комплект носков Носки, 5 пар</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>314 ₽</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Нет оценки</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/komplekt-noskov-noski-5-par-1063137077/?advert=moCznM_LdrAEL94gZkZtyoqG0t4mdLp0Orug-K-jRy0OUvvxH-EeAK0nXP0GNENvVrR7Nmv_25EDQfE1X1P08IonenKIQz9uuHGsyHz7hP6E3TuqbiV64xQakX9E34mqQEeMOt0Y2FVC1iuHfIGY4F7hjmy2yN8bczNUfVUFjB5nuP7dSIZPRqHnH2JlfjJpwdOyZonW-CJTu7CC2es3hDwmAV-xKgLirNdjhHcizCqg0PF-1ZV7r31TOyefnD03qe1f4SesQ8a4P1gx4EdemvgCNfYmaQh_NAplxcyo-CI2DQSkhr_zzqYgh0NL6KV3gxOUXsPf8SU&amp;avtc=1&amp;avte=2&amp;avts=1691421515&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Носки Minimi Cotone, 5 пар</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>559 ₽</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.8  </t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/noski-minimi-cotone-5-par-176988022/?asb=e9q5gZac08sD7egzRYyGDKdfK4%252F8Y69G6RdXRUlB17I%253D&amp;asb2=6GNpllCa8JRxc3-rctd3ZMSWFQltShL9vLumVG8-nRhwxSSg17G4xBsHVdGAuuBY&amp;avtc=1&amp;avte=4&amp;avts=1691421515&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Носки MORRAH Унисекс, 4 пары</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>492 ₽</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.9  </t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/noski-morrah-uniseks-4-pary-1002906947/?asb=9bs%252Br5n8abp%252Bkt%252BrPogFO9MbUbKQw2HGrvcVbp52jCjkui1OraCXX1ZOAEg%252Bp8GA&amp;asb2=L6XQrNFB6rEma4H4PxZPVx2QDvjDsa-q8S7yVRtLz3nMWx1hPY5Enk39lfRoBb0Qh3QadynnXueUjOFoe8quAmR4nME0R5KW9wMJMl5g9oHe6q5_-AbXJ3vxwWEvGHZuouuoIDLTLQdsFwsbPnZ5Z6KDtZWk196wSJdJAuhVFrU&amp;avtc=1&amp;avte=2&amp;avts=1691421515&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Комплект носков ggorangnae Яркие, 2 пары</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>480 ₽</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Нет оценки</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/komplekt-noskov-ggorangnae-yarkie-2-pary-1044375540/?advert=pdGOYkB7HZlOln5CY0W_bZWJkGTQNhgUmX0hWHvXc0zzUf9oLs-pjzebUUqs3OhcYFWCL4xVrAjItmMCm0zY4sosczY5XIiljZ-NO2xlrLE0P3ecWE1Xj1NrdIfqxSbO0dDGKwvCryYJvP52Z4XfN7rKYVOG5e5szNp6xYJfZoBMPgjXIS2LlTz-GfMRDLgb7eEDrYBWlnG-Hp7cmdSxYLKDsJSBG4slHPUuY8SmAVpjCmqgJMEFdsX2CY5cfOScwAhSbI6h2amxSelLTkdUkXlSFYJoQ76MnxZrQB_yZsjeL3N-3lu1a-FSojG83RXNa56rmwT6rrA&amp;avtc=1&amp;avte=2&amp;avts=1691421515&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Носки Nicenonice Lite</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>243 ₽</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.9  </t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/noski-nicenonice-lite-267223069/?asb=ZqAmjNHasqch4RYVJUnA6gL75Mok%252Bm3AhXrz75LH8fJ3nYieu0V1Q5jl%252FqQDsnc%252F&amp;asb2=sGRi5af7YzhRoThH8HcshBWybtkuuo_A1a0RZ0m6wYoAuffAOJ-xJ854I45JyCW_sfAhtYzw9Zo1mBZKP_9QKjlpYzwgirZ84lSGaybHc-Pc52dXIA7LQmBBWxrAYqeGc8w_vUJMD1adaF-XZM4c5cAFLh06QpjisaRZCVP5Yfs&amp;avtc=1&amp;avte=2&amp;avts=1691421515&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Носки PUHLYY KOT, 5 пар</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>333 ₽</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.8  </t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/5-par-1072821157/?asb=JwLX8fMvfGUwbCqGQ2DYsetOH4o8%252FgPjyJBnZKCyY5CIZLvUQpgeDZDBwkSjE3tr&amp;asb2=pcz_wMf2kn-szmk8iiqwVfNVm9NVV5hzRqSm4IL8LtVFmp8EaXRpfLde6vh2aV_-oVc9wEtzr6_5vkYB1TdNp118WMvd99Zj_7ho2kwftKbH9Ce1Ah9yt4QYdEdiq-CPR-nJ1UY3ql9o21D_m-JaHR6HVc4_UCCboi4wH2ACaZc&amp;avtc=1&amp;avte=2&amp;avts=1691421515&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Комплект носков Turkan, 5 пар</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>668 ₽</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Нет оценки</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/komplekt-noskov-turkan-5-par-1089632111/?advert=RXGML04gpIYnh-ezBsPElecgcuh0wI86pgs32AYbAYBFy8iTI_fHXlN-3q_ZJIsnGMBRvl9uixzLAb_4L41Sq5T8mLkUgwqAYl-6Ie8X-M1gn8MqMjEjd7MVMhCd-yEBJbgI0htSWgVb5gjYPFDN_WpccfVH0Ew5pmuvHrQPSfF0-HkZaXFmT7XeqaLy6tjlyBgFlY_4P2xc91zZDrco0XpnUV72a-sd5fZjk_cnV86KnFuDN3lAU2pigIWRfslIPSw4bnb-uH_Jr601f_LdC3sQr84eipWutusejUTYA350ha7Pt4IQ7gEDdW6EUgF_LHBCHKptUoI&amp;avtc=1&amp;avte=2&amp;avts=1691421515&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Помощник для надевания носков Надевайка</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>494 ₽</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.7  </t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/pomoshchnik-dlya-nadevaniya-noskov-nadevayka-282705690/?asb=Z2mppkOeFS4dHI%252FMQzLyw0ECF%252BQ7xoLO%252BND2LplG3oE%253D&amp;asb2=uBx7ZbSJw4vr4CgVY5drSBHQkY5n2zBez6ejTqxsQBVkYrobeToBlW7j9EzBDte6&amp;avtc=1&amp;avte=2&amp;avts=1691421515&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Комплект носков STORMY, 6 пар</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>297 ₽</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.8  </t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/komplekt-noskov-stormy-6-par-912421273/?asb=PCoS2TIjBuvAI%252BAZ%252FEZpIBHBxp6qI05tn%252FZ8j2a7Uvo%252FhD2o7hUf1Jhn9JXQ0ppz&amp;asb2=Rex596cfNgO_H-HFKbor7sp9miFIBYqOmG9xnQiKNk8qeExvyZzRngGZ_1yBgtYVFPvS_0o1py344ErbkcX3Pb_qRTYpfot1GoSj6JfeoNtMST-CSWzLA5oRPDt-aQ0u_4BkZ83El4qRPxVcImiTe9_6ZTfzLwAsCY6XMzJtyRA&amp;avtc=1&amp;avte=2&amp;avts=1691421515&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Комплект носков Happyfox Детские, 6 пар</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>482 ₽</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.9  </t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/komplekt-noskov-happyfox-detskie-6-par-307177048/?advert=E1S8chHypQrFl8MN78EJ5OC_jS00Sb_plA9G_nnEC9LvwzZb-Xf5_wrbuXmF5hdM_sxoHDVhFj_TscmEDlbhWJeMUbU27kmYWofuHBd6IztSo5PAb_vpDQugj6w5QJLYNSSP9cdrmHdIIyEz92b4g6N55-6K_CYJmxHYX_dtZFo7qCH83qSfWnF7j64RoYcG3zheyHG4NuunXWOl1mEGdH9bTYVn7YfS4oFIexqqs8FVnqtFX6uIk7Bl1xf74Ty0RhTEkWMm0Zm2sfFPwyRlrkS6EqI5kmBmrZyIlhfcluHOvmeRdSmU5WkdaxtnFSl8Sgkky3GBIdw&amp;avtc=1&amp;avte=2&amp;avts=1691421515&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Носки ВАЛЬС Kids Collection, 6 пар</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>340 ₽</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.8  </t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/noski-vals-kids-collection-6-par-954950579/?asb=IAorXb2cMbwuduaAnUiCm9rBloryKZSGPK5cvqdWbNg%253D&amp;asb2=gxO7sTKe7ckQEzkj5zcyyXjfW0IfQWSOQgRU1e49xmKrhZuYP6TZ2-6pgmdFxFoz&amp;avtc=1&amp;avte=2&amp;avts=1691421515&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Комплект носков Gloria Jeans, 3 пары</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>295 ₽</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5.0  </t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/komplekt-noskov-gloria-jeans-3-pary-1022253231/?asb=M9hc2HpYhi2z2gyp5rUyEd%252BYU1G8ySUHaYJsmpw3%252BiTetc%252FR9OGOiMo6qVs2Cp2n&amp;asb2=2h_glLAs47DCpv899MA0hDEt6l_Uoeih7d3p7ssB_brnYFrKqaLAlpmg1DLjnVJ7X3U8obNBEg-m-_SJRfWmwOFGd9zyShp3SU_KJ0l6AlsfPA_OF3ZAJW8VhXLJRV2QDdSdUyPL9BU_N2-xEY8GlpawGQfnUmJJ4tsSTloypvI&amp;avtc=1&amp;avte=2&amp;avts=1691421515&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Комплект носков Носки, 10 пар</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>647 ₽</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5.0  </t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/komplekt-noskov-noski-10-par-1091228132/?advert=pPiBjyZhroxcnIS62pvQiANes5nBWlXpIp8fD2sVQefKTJbSebObC-hwkCfosa099uhkzAxqHRS5e8eDmww8O3YH4Qt2HMkz37_KApXQPQq_iAMlnoDCsO8uNFTxZciNTSKdmemfESrgMx9xexvwXDiKA0NHOPYwevBFYA6h8nIwS6zCd_v4R7AijHf7DmnlR5_s7oJt-FlD_r1HSAW3fOrdTNhE4-DhoNEaJedl_m1nUv9FIl1nbf7g1ghyuk2tEiTQWs_gOS12YFyMjQ74mKh01BWTKyzxFSZlSrTaL_k7PtuFaI-WYyY-1NJmquVqkO00HMIccuM&amp;avtc=1&amp;avte=2&amp;avts=1691421515&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Носки Penetta, 5 пар</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>316 ₽</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.9  </t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/noski-penetta-5-par-1020770489/?asb=oOQnq80MQDcTul1MmST47T4uBsGJihfH%252F50zHMsXi9g%253D&amp;asb2=cvon13-cmhcoO4umkhU5cJI_9g9hudYS4wH6xpUiD8Re7RmNWzjMn8DutW3a_Gb0&amp;avtc=1&amp;avte=2&amp;avts=1691421515&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Органайзер для хранения носков, нижнего белья</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>392 ₽</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.9  </t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/organayzer-dlya-hraneniya-noskov-nizhnego-belya-945394742/?asb=bqpKau%252Bf57qnq%252BIlKaf80qU56wiuU3LQ0dMJnl3OvBM%253D&amp;asb2=wxlpbLLaw1uX0T5Je-ACHt6xvVgKZSsL6E2ITxNjAtVEuYumFEAo5iOxO2NowhRV&amp;avtc=1&amp;avte=2&amp;avts=1691421515&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Комплект носков D&amp;D boutique Гипоаллергенный, 4 пары</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>768 ₽</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Нет оценки</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/komplekt-noskov-d-d-boutique-gipoallergennyy-4-pary-1049644451/?advert=Dc-gYJLMcBCM2XPyxIR2FmTOEBJdyFcvalW0mV5fijxnDKjn_Tm16dOCVAvsECvae6bwIIT6sMNzGc_WES8e9jTujxK6SYf1RFtHxphDQcDdxDO2sVr_Qz16Ks4CUdz-2_XVhpJyB_ep8-d2btt1NnxIrwhk4aJiOvIdF13KSkNP97rPXCXJHwZ5jHlPJ6kISIpBWTtnN0JBqKwFUYFg4mNAOWjmzbxFKSyEE8CIttsQozrmMYCJDqCzyosyr4BRK1vvYiCiEAMO5jS4dC0_4mUtOXaJuvXzVIaQezSPZU0S2nxwn7l1n69jK_9DSGM--DpW4CpRj1A&amp;avtc=1&amp;avte=2&amp;avts=1691421515&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Подследники Osko, 6 пар</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>289 ₽</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.9  </t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/podsledniki-osko-6-par-940160859/?asb=SwHn8mxqZXou0b6P%252Fu7x%252Bmdry6rfqtO9Kg0pA7xVm1c%253D&amp;asb2=tyNZPPyiebNMsSaIWsgZ1Hcc3i-2AHcMyw0tE4XYV0n6YfD0kmmVfzj5MsZTLEIp&amp;avtc=1&amp;avte=2&amp;avts=1691421515&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Комплект носков Millennium - Тысячелетие, 10 пар</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>654 ₽</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.9  </t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/komplekt-noskov-millennium-tysyacheletie-10-par-898965014/?asb=SR%252BYLZFuhWjQv%252B%252FmGiiw3%252BsD90Jn18GR2sUrqzpM4Bc%253D&amp;asb2=l8AJOUdFskNcN_slgifcZlonjUbnFZMNxjdfBY2TTUzfNcoVBaGkNXwtXdr6z59g&amp;avtc=1&amp;avte=2&amp;avts=1691421515&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Комплект носков CAIMAX Здоровье в любом возрасте, 10 пар</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>459 ₽</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.8  </t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/komplekt-noskov-caimax-zdorove-v-lyubom-vozraste-10-par-888702325/?advert=AW6F232hcOL-tg7r9miempVCvOM_5PS3TEDWrdLIRvLe5pAlX9Xuyp3d9H5ZUPtzX6Y-fTV8cUNzcvPByrVq5Q_287Z1D635yP6NGBEwPOKGAs1jWUMoQYF9OwJVawQT3_Fy6OHrouZcQzG2FBMFWQtgwyKFx4ICi3SHX0jHSUB97hTFup5FRwlr9JNCs_KxBccaikTwdssNXVBt0-kNrUEYaCEV33A6fob49rqRz_IaytEw2a4_Mrilch03bfYNCH6FssYRzLvQL9fRReSzD21dvm2wbpiwVVvwSol1It9nxTfSy3J2PcbQ_mtoYXx6pSjOeC9s5_s&amp;avtc=1&amp;avte=2&amp;avts=1691421515&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Шаблоны блокаторы для носков универсальные набор М и Ж по 1 шт</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>228 ₽</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.5  </t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/shablony-blokatory-dlya-noskov-universalnye-nabor-m-i-zh-po-1-sht-764046651/?asb=NxwVGN%252BZOJCg8aJ90Afwb93s8B7hdKQhm6Lz1EtDZ%252BA%252FkJPGpyGY962RCLLTFUIV&amp;asb2=AfjoaUlG2MaOYTrB8BikTNcZLi9dRAp6B_IsZyKDaxc2aRa1cY2zJ9Fi4keU-mbQU4q1egwPRVGFXys72Rcd9EbkJT9zj9yl7QkvUqFq9EAIKtxqztQ7-UGLN1OxFpV2_OUjU8xzcWuZ2ITAMzP0rAEYqm1ZvBcPMb61ZjUyzEw&amp;avtc=1&amp;avte=2&amp;avts=1691421515&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Комплект носков Natalino, 5 пар</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>249 ₽</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.9  </t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/komplekt-noskov-natalino-5-par-1031348038/?asb=a8ZJgB%252FeN0qLGQXoVUGzicDuB5fjMJzfQ%252B%252BhFrNYCQA%253D&amp;asb2=FmxsZ42iWEddYS7F834RdQO_hI5rjLRyW3Ty_cc9JIEuF6rEAHlUtk20jKcnzEGx&amp;avtc=1&amp;avte=2&amp;avts=1691421515&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Носки, 1 пара</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>355 ₽</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5.0  </t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/noski-1-para-1022255089/?asb=bIfGX2XseUNlWtJRo5p3JTiJaABzj2yS%252BYU6k%252BAdQFA%253D&amp;asb2=qcG2-cd9AIsgheKj6wulq4wjtmgLiYPOAZLIdKxcTTpOgEyVHT4EjEJrEQHE-ypc&amp;avtc=1&amp;avte=2&amp;avts=1691421515&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Носки Pierre Cardin, 2 пары</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>371 ₽</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.8  </t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/noski-pierre-cardin-2-pary-230784802/?asb=1WyeJOqFs5ey%252Bg7GCQrYg2hi%252BC%252BCa5VUIRdlb1SdFtP9MK4t8CIFrjGJv2JtK0gJ&amp;asb2=5KqxSlutmW1LqACGGvD1t3dSybhyJukcJmvi6qsHBtVSv8AI8b1P1xkQzfypo9OOYZiR_vmi9xl6TsQRktxrN6cjlKZJiYeKbyzY0UUeJwQzwZLqCbgcNnVHqGBQsjJBfmb7Yx_VUxPQzcWd63CIZ-StKgWfi_72NLkoIZAl3fA&amp;avtc=1&amp;avte=2&amp;avts=1691421515&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Носки Leora Спорт, 10 пар</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>600 ₽</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.8  </t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/noski-leora-sport-10-par-573739628/?asb=XojkzIuBqlRtHG1fED9sTMFHbqkPD2Ig5%252FyVqfLN5ncu989jsUuWXRhdmq3Ck%252BGV&amp;asb2=crJbvWDRcX9072vPWEnW_D2DjZW3W5-wH2BhLd2qQ3MjX8Gvu9RgwxUz9AtuZ0u79G24Lh2iiBvGYPmbyVbRB4zK5r7_DQrqueK5A0SY3xVVtoB_90gzzMq93dOb9Zp8y7zi0usq_zctbkOVSRigdJpSfzEXikO2F2HWzjTEynI&amp;avtc=1&amp;avte=2&amp;avts=1691421515&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Носки Happyfox Для женщин, 1 пара</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>305 ₽</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.9  </t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/noski-happyfox-dlya-zhenshchin-1-para-307003853/?advert=0Ywee3-p0U3oR6VXAlevs3u6GvuOAovsbhfH2zIlmOouaogxPC0gXAeKpT9L46_0-HZlfRInvlHU2JXzpN5DWf262jLvXR54gc9DDI8QhyG4O1v_B5hBYVIBkQolDX_khosnzwwD-Rd51TKq87XaY2YtkaVm3KTabo9eQPY6tk4aeKma3pkIVuCGqVRINZCIf4Hm0FtaaVvZf7uaeEADOgDuj2KtgTwGcvaFo18uCmYLGoa_60tHn437kpp5flM_AOJCVrqToamhwdMy5vsvNbINoRdkQbYtwlN9IGsYxBd1bSOFzeva_e7Ir6OISade3jb8w_vC0A&amp;avtc=1&amp;avte=2&amp;avts=1691421535&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Косметическая увлажняющая маска для ног / многоразовые СПА гелевые носки/ Педикюрные, силиконовые носочки</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>296 ₽</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.7  </t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/kosmeticheskaya-uvlazhnyayushchaya-maska-dlya-nog-mnogorazovye-spa-gelevye-noski-pedikyurnye-889859184/?asb=VFsgJzsZovf0YcCA5NFp2QWuoM16WsZyLS%252Byio67j1RfkWrrItmkY6Op%252BlguyqCm&amp;asb2=7v82UqWd0a4yzMLCQNSXYO4hSP-r56cIh8hQ71fNtH7lsq7vWcd3LUPrjaHg4jO500ld19_ikmT8CFDxRFgtizqM0P0YV-rjGgOWb8BPAy6mTka0thKbTPRikDC_sWx0CbNDZojwKVi8PIsQUtpUn319H-12zE5qPg87KJiyLIA&amp;avtc=1&amp;avte=2&amp;avts=1691421535&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Носки Bailar, 5 пар</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>322 ₽</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.9  </t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/noski-bailar-5-par-229164912/?asb=vo9c7HZnlPKxsfk2bQ3D3cCNnpczTWu5FJpHo8Vhsls%253D&amp;asb2=D9Im-NiM5QeKCX729qKbNqE2SCocg-wlLqYRLOfwtviJdgcrroqSiAJX8nMTY8aI&amp;avtc=1&amp;avte=2&amp;avts=1691421535&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Комплект носков Носки, 10 пар</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>647 ₽</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5.0  </t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/komplekt-noskov-noski-10-par-1091228132/?advert=luyfcbkARDrdu7s5PPv0yMc-3i-beEsJTDRpkGg7QJfKy4LyT74aCzyyuuresldcaouDsCvqRHCeAaCSoimV5LViRXVG73jx5iLLFZ-l5jrm2QCMaf3GP4wyRvdAUGU4iwZufQSlwVowDHMYWMSgFPJKNfL1LGPv8ETj0QxlAureDuJYTjatJNK8d1M4JmWsdVZEWsA35nPhjyRsKNSNhOKiwY4YpawZQaNBQ1DchJa2Nj-m5AJBvr6ZL2NOfxev-R0Gw2clnH-UoeAcA7k22cJVkGLqPsO7kPE5m-8x6c53BZxIL0jVvD9s6I70hnluihz7IjzvFw&amp;avtc=1&amp;avte=2&amp;avts=1691421535&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Носки с войлоком защитные накладки чехлы на ножки стола, стула, комода, дивана, для мебели белый 16 шт.</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>509 ₽</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.9  </t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/noski-s-voylokom-zashchitnye-nakladki-chehly-na-nozhki-stola-stula-komoda-divana-dlya-mebeli-belyy-367565466/?asb=SLlrIM%252B2gbDAVhZPIAryEhoE8NbOsM%252FMBtjBteqYutq8BxUm2ACzUqL%252Brg1BlGXU&amp;asb2=Ns4Hro9UeP6C6jeaafonQkddpMZgKADsIF5DcPu2we0UWwoxh0Fx0RUCqBCbsNg4KBunRdHzI_qNIjHYCEsrGIjwBG-jSaaRyk_uIiyf8Y0cS7IsODSIyXR9e-cOyAqvP4pmQFTERmxMIBGCJJy5CDBaaENykjGKFXlZ3gWSyDs&amp;avtc=1&amp;avte=2&amp;avts=1691421535&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Спортивные гетры</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>331 ₽</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.9  </t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/sportivnye-getry-616485687/?asb=a3uN%252FgorvKJbbigpW5MuQZOndRrb2pCdtHX4haJxJCK4k27AmyD9G1sd82ImYlvA&amp;asb2=VtucpJvPfp_nrFS8S49K0txN6FUvT1Mfy9Up-pD1-m85wMh2bfUN0qvf3ac8RtfXQYvn9hUa4Lw-CdjpglS5EAgflS5aOeEanzuL-NdY7vz6E2sZ7wstV9OoHNFcvtHBIuYzk7NKn3B9wv9RcIRtk9F3QnBJ2EWugRoL9mS5yzA&amp;avtc=1&amp;avte=4&amp;avts=1691421535&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Комплект носков Happyfox Детские, 6 пар</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>446 ₽</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.7  </t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/komplekt-noskov-happyfox-detskie-6-par-307008414/?advert=K2RONgwZ7zVmoysWCVBY1Q9g498s0AevV1UgSYY5z4XC2EtltMZPVvugI-eTwp8d6V_9RyUH54zAld64HPyVTxKvj472C4vatJgiDYHElPlSbb3ijleP2OLFig-1pOFoya8ZdrRaIDqCapnbdpVW_T8nlW9CHkNCLS7TP1z3-UYHt0XpbABH-BG7ddCMYxKnegJbY8CN_yq1Q0GwkS6vnx1x3ZwwlyQmZdU_Wn4UJ48tJ7B-sJRcpiGCU3TaxBsA9rgoshZh6B_k4gUm7lU3HOrty_mr5ci4EPL_ecGMCfmmVqlL_1Qmj-t0ogBX77KescRtD9XJPQ&amp;avtc=1&amp;avte=2&amp;avts=1691421535&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Носки Elise's secret, 6 пар</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>359 ₽</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.9  </t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/noski-elise-s-secret-6-par-991404280/?asb=pKZVKq6xhiF9VmR2inC1ctQMO6EFRzyCHjc8AlBp4kg%253D&amp;asb2=EIaPV9Qcfmu1KbZRr7-8aIfrpJvFMTHjdobolb6LLtI18gq0AoPCZRpRNGKKpNek&amp;avtc=1&amp;avte=2&amp;avts=1691421535&amp;keywords=%D0%BD%D0%BE%D1%81%D0%BA%D0%B8</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/result_OZ.xlsx
+++ b/result_OZ.xlsx
@@ -413,142 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>№</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Название</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Цена</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Рейтинг</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Ссылка</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Кружка Лучше пройди афганскую войну Кандибобер 100500</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>571 ₽</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4.9  </t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.ozon.ru/product/kruzhka-luchshe-proydi-afganskuyu-voynu-kandibober-100500-557209289/?asb=OgYaE2DzHDI%252BumuF7VxERzanhQPhgd%252BMOOYc1nTC8VQ%253D&amp;asb2=puvUuxilXYs_-jru3y3P8RmCoVob-oLBXAaNaW-bzdNsG7wadP6DQDWxEmj0adu2&amp;avtc=1&amp;avte=2&amp;avts=1691423221&amp;keywords=%D0%BA%D0%B0%D0%BD%D0%B4%D0%B8%D0%B1%D0%BE%D0%B1%D0%B5%D1%80</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Коврик для мыши Лучше пройди афганскую войну Кандибобер 100500</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>496 ₽</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5.0  </t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.ozon.ru/product/kovrik-dlya-myshi-luchshe-proydi-afganskuyu-voynu-kandibober-100500-811837315/?asb=ZWGzgUaDWVaemLGVeuoHH3t2BRPECrl94GWii%252FAJ13E%253D&amp;asb2=kNdQLq1c8ko8LhPz6PwU4C5zUoEZxwC8oqhE9NCvohvwOIayy1VRqyjs19yJ_LZa&amp;avtc=1&amp;avte=2&amp;avts=1691423221&amp;keywords=%D0%BA%D0%B0%D0%BD%D0%B4%D0%B8%D0%B1%D0%BE%D0%B1%D0%B5%D1%80</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Коврик для мыши Живи ради Бенефиса Кандибобра Бенедикт Камбербэтч</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>496 ₽</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5.0  </t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.ozon.ru/product/kovrik-dlya-myshi-zhivi-radi-benefisa-kandibobra-benedikt-kamberbetch-811871075/?asb=eb5zBhaoDGDM0%252Bwe28bDbVavRSxarBWpS14s6W7BzB0%253D&amp;asb2=nlkQjcUSFN9x1MLA-avTxciAxoIVfvAHMsCE8allXj2VE8gH0HV2OG5la5DI9ZQJ&amp;avtc=1&amp;avte=2&amp;avts=1691423221&amp;keywords=%D0%BA%D0%B0%D0%BD%D0%B4%D0%B8%D0%B1%D0%BE%D0%B1%D0%B5%D1%80</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Кружка Живи ради Бенефиса Кандибобра Бенедикт Камбербэтч</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>571 ₽</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5.0  </t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>https://www.ozon.ru/product/kruzhka-pozhaluysta-ne-sovershay-samoubiystvo-zhivi-radi-benefisa-kandibobra-benedikt-kamberbetch-593049317/?asb=kRft2roG7vlatiyShO4HCMjA5l%252Bt742BCCCknISZWQM%253D&amp;asb2=YuH5iVrdPuBTF3HDscwFsPUm3jaz9Skl4iTtnIlbwBJF40RGaer6jbZ83p0ubemK&amp;avtc=1&amp;avte=2&amp;avts=1691423221&amp;keywords=%D0%BA%D0%B0%D0%BD%D0%B4%D0%B8%D0%B1%D0%BE%D0%B1%D0%B5%D1%80</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>